--- a/app/static/input_files/samples/basic_test.xlsx
+++ b/app/static/input_files/samples/basic_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBE4808-26DA-A443-8108-E762BD11647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542F94D-28E4-FE46-803D-C326A84A9C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" state="hidden" r:id="rId1"/>
@@ -34820,8 +34820,8 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -38425,8 +38425,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
